--- a/backend/fms_core/static/submission_templates/Normalization_planning_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Normalization_planning_v4_8_0.xlsx
@@ -51,7 +51,7 @@
             <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Volume of dilutant to be added outside the robot. Used for bisulfite control.</t>
+          <t xml:space="preserve">Volume of diluent to be added outside the robot. Used for bisulfite control.</t>
         </r>
       </text>
     </comment>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">Norm. Conc. (nM)</t>
   </si>
   <si>
-    <t xml:space="preserve">Manual Dilutant Volume (uL)</t>
+    <t xml:space="preserve">Manual Diluent Volume (uL)</t>
   </si>
   <si>
     <t xml:space="preserve">Final Volume (uL)</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">Option C. One option column must be provided. This option provides the final concentration in nM of the destination sample.</t>
   </si>
   <si>
-    <t xml:space="preserve">Volume of dilutant added manually during the normalization process. This volume is removed from the dilutant volume to be used by the robot. Typical use is for bisulfite control.</t>
+    <t xml:space="preserve">Volume of diluent added manually during the normalization process. This volume is removed from the diluent volume to be used by the robot. Typical use is for bisulfite control.</t>
   </si>
   <si>
     <t xml:space="preserve">Final volume desired in uL for the destination sample.</t>
